--- a/level-3/hackerearth/phase-3-dynamic-programming-1/hackerearth-phase-3-dynamic-programming-1.xlsx
+++ b/level-3/hackerearth/phase-3-dynamic-programming-1/hackerearth-phase-3-dynamic-programming-1.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493731C8-A3F8-48B5-A6EC-F5DBB8D86C57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C68207-66E1-459F-9327-4155E5DF325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - dynamic programming 1" sheetId="14" r:id="rId1"/>
+    <sheet name="dynamic-programming-1" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -555,12 +568,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -573,10 +586,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,81 +1033,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C113)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C113)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D113)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E113)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F113)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G113)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H113)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1116,17 +1126,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1137,16 +1147,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1167,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1188,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1205,11 +1215,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H55" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H55" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1226,11 +1236,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1247,11 +1257,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1268,11 +1278,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1283,17 +1293,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1310,11 +1320,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1331,11 +1341,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1352,11 +1362,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1373,11 +1383,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1394,11 +1404,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1409,17 +1419,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1436,11 +1446,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1457,11 +1467,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1472,17 +1482,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1499,11 +1509,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1520,11 +1530,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1541,11 +1551,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1562,11 +1572,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1583,11 +1593,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1604,11 +1614,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1625,11 +1635,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1646,11 +1656,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1661,17 +1671,17 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1682,17 +1692,17 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1709,11 +1719,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1730,11 +1740,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1745,17 +1755,17 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1766,17 +1776,17 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1793,11 +1803,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1808,17 +1818,17 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1835,11 +1845,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1850,17 +1860,17 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1877,11 +1887,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1898,11 +1908,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1919,11 +1929,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1940,11 +1950,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1955,17 +1965,17 @@
       <c r="B44" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1976,17 +1986,17 @@
       <c r="B45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1997,17 +2007,17 @@
       <c r="B46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2018,17 +2028,17 @@
       <c r="B47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2045,11 +2055,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2060,17 +2070,17 @@
       <c r="B49" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2087,11 +2097,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2108,11 +2118,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2129,11 +2139,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2150,11 +2160,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2165,17 +2175,17 @@
       <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2186,17 +2196,17 @@
       <c r="B55" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2207,16 +2217,16 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" ref="H56:H100" si="1">SUM(C56:G56)</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="12" t="s">
+        <f t="shared" ref="H56:H100" si="2">SUM(C56:G56)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2227,16 +2237,16 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2247,16 +2257,16 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="11" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2267,16 +2277,16 @@
       <c r="B59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J59" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2287,16 +2297,16 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2307,16 +2317,16 @@
       <c r="B61" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2327,16 +2337,16 @@
       <c r="B62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="11" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2347,16 +2357,16 @@
       <c r="B63" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="11" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2367,16 +2377,16 @@
       <c r="B64" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2387,16 +2397,16 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2407,16 +2417,16 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2427,16 +2437,16 @@
       <c r="B67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="11" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2447,16 +2457,16 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2467,16 +2477,16 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="11" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2487,16 +2497,16 @@
       <c r="B70" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="11" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2507,16 +2517,16 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="11" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2527,16 +2537,16 @@
       <c r="B72" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2547,16 +2557,16 @@
       <c r="B73" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2567,16 +2577,16 @@
       <c r="B74" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2587,16 +2597,16 @@
       <c r="B75" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2607,16 +2617,16 @@
       <c r="B76" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2627,16 +2637,16 @@
       <c r="B77" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2648,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2663,10 +2673,10 @@
         <v>2</v>
       </c>
       <c r="H79" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2678,10 +2688,10 @@
         <v>2</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2693,10 +2703,10 @@
         <v>2</v>
       </c>
       <c r="H81" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2708,10 +2718,10 @@
         <v>2</v>
       </c>
       <c r="H82" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2723,10 +2733,10 @@
         <v>2</v>
       </c>
       <c r="H83" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2738,10 +2748,10 @@
         <v>2</v>
       </c>
       <c r="H84" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2753,10 +2763,10 @@
         <v>2</v>
       </c>
       <c r="H85" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2768,10 +2778,10 @@
         <v>2</v>
       </c>
       <c r="H86" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2783,10 +2793,10 @@
         <v>2</v>
       </c>
       <c r="H87" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2798,10 +2808,10 @@
         <v>2</v>
       </c>
       <c r="H88" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2813,10 +2823,10 @@
         <v>2</v>
       </c>
       <c r="H89" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2828,10 +2838,10 @@
         <v>2</v>
       </c>
       <c r="H90" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2843,10 +2853,10 @@
         <v>2</v>
       </c>
       <c r="H91" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2858,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="H92" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2873,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="H93" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2888,10 +2898,10 @@
         <v>2</v>
       </c>
       <c r="H94" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2903,10 +2913,10 @@
         <v>2</v>
       </c>
       <c r="H95" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2918,10 +2928,10 @@
         <v>2</v>
       </c>
       <c r="H96" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2933,10 +2943,10 @@
         <v>2</v>
       </c>
       <c r="H97" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2948,10 +2958,10 @@
         <v>2</v>
       </c>
       <c r="H98" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2963,10 +2973,10 @@
         <v>2</v>
       </c>
       <c r="H99" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2978,10 +2988,10 @@
         <v>2</v>
       </c>
       <c r="H100" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2993,10 +3003,10 @@
         <v>2</v>
       </c>
       <c r="H101" s="7">
-        <f t="shared" ref="H101:H113" si="2">SUM(C101:G101)</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="12" t="s">
+        <f t="shared" ref="H101:H113" si="3">SUM(C101:G101)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3008,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="H102" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3023,10 +3033,10 @@
         <v>2</v>
       </c>
       <c r="H103" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3038,10 +3048,10 @@
         <v>2</v>
       </c>
       <c r="H104" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3053,10 +3063,10 @@
         <v>2</v>
       </c>
       <c r="H105" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3068,10 +3078,10 @@
         <v>2</v>
       </c>
       <c r="H106" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3083,10 +3093,10 @@
         <v>2</v>
       </c>
       <c r="H107" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3098,10 +3108,10 @@
         <v>2</v>
       </c>
       <c r="H108" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3113,10 +3123,10 @@
         <v>2</v>
       </c>
       <c r="H109" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3128,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="H110" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3143,10 +3153,10 @@
         <v>2</v>
       </c>
       <c r="H111" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3158,10 +3168,10 @@
         <v>2</v>
       </c>
       <c r="H112" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3173,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="H113" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="12" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>124</v>
       </c>
     </row>

--- a/level-3/hackerearth/phase-3-dynamic-programming-1/hackerearth-phase-3-dynamic-programming-1.xlsx
+++ b/level-3/hackerearth/phase-3-dynamic-programming-1/hackerearth-phase-3-dynamic-programming-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C68207-66E1-459F-9327-4155E5DF325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491D3DA-AE0F-4308-9DD7-DEB1D66C1CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,57 +636,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1087,7 +1037,7 @@
       <c r="A3" s="18"/>
       <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C113)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C153)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
@@ -3230,41 +3180,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="6" priority="63" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="5" priority="62" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="4" priority="61" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="41" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="2" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="J4" r:id="rId1" xr:uid="{1C46BF8E-8258-4A83-9A01-F6AD2D459C7F}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{DB4881AB-FD47-439E-9A9D-F6137EA81256}"/>
